--- a/datatypes/elements/data-in/elements.xlsx
+++ b/datatypes/elements/data-in/elements.xlsx
@@ -816,9 +816,6 @@
     <t xml:space="preserve">C6H5O7-3</t>
   </si>
   <si>
-    <t xml:space="preserve">Edt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ethylenediaminetetraacetate</t>
   </si>
   <si>
@@ -859,6 +856,9 @@
   </si>
   <si>
     <t xml:space="preserve">C6H6NO6-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxa</t>
   </si>
   <si>
     <t xml:space="preserve">Oxalate</t>
@@ -1057,11 +1057,11 @@
   </sheetPr>
   <dimension ref="A1:AS124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S88" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J107" activeCellId="0" sqref="J107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.12"/>
@@ -12131,7 +12131,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>-4</v>
@@ -12147,19 +12147,19 @@
         <v>288.2128</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O110" s="0" t="str">
         <f aca="false">A110</f>
-        <v>Edt</v>
+        <v>Edta</v>
       </c>
       <c r="R110" s="0" t="str">
         <f aca="false">O110</f>
-        <v>Edt</v>
+        <v>Edta</v>
       </c>
       <c r="X110" s="0" t="str">
         <f aca="false">A110</f>
-        <v>Edt</v>
+        <v>Edta</v>
       </c>
       <c r="Y110" s="0" t="str">
         <f aca="false">N110</f>
@@ -12201,14 +12201,14 @@
         <v/>
       </c>
       <c r="AJ110" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK110" s="0" t="str">
         <f aca="false">N110</f>
         <v>Ethylenediaminetetraacetate</v>
       </c>
       <c r="AL110" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM110" s="0" t="n">
         <f aca="false">10*AM17+12*AM39+2*AM57+8*AM65</f>
@@ -12217,7 +12217,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>-1</v>
@@ -12227,7 +12227,7 @@
         <v>194.1392</v>
       </c>
       <c r="N111" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O111" s="0" t="str">
         <f aca="false">A111</f>
@@ -12285,7 +12285,7 @@
         <v>Glutamic_acid</v>
       </c>
       <c r="AL111" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM111" s="2" t="n">
         <f aca="false">6*AM17+10*AM39+7*AM65</f>
@@ -12307,7 +12307,7 @@
         <v>178.168</v>
       </c>
       <c r="N112" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O112" s="0" t="str">
         <f aca="false">A112</f>
@@ -12365,7 +12365,7 @@
         <v>Iso-saccharinat</v>
       </c>
       <c r="AL112" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM112" s="2" t="n">
         <f aca="false">9*AM17+8*AM39+1*AM57+3*AM65</f>
@@ -12374,7 +12374,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>-2</v>
@@ -12384,7 +12384,7 @@
         <v>102.0454</v>
       </c>
       <c r="N113" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O113" s="0" t="str">
         <f aca="false">A113</f>
@@ -12442,7 +12442,7 @@
         <v>Malonate</v>
       </c>
       <c r="AL113" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM113" s="0" t="n">
         <f aca="false">3*AM17+2*AM39+4*AM65</f>
@@ -12451,7 +12451,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>-3</v>
@@ -12461,7 +12461,7 @@
         <v>188.1156</v>
       </c>
       <c r="N114" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O114" s="0" t="str">
         <f aca="false">A114</f>
@@ -12519,7 +12519,7 @@
         <v>Nitrilotriacetic_acid</v>
       </c>
       <c r="AL114" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM114" s="0" t="n">
         <f aca="false">6*AM17+6*AM39+AM57+6*AM65</f>
@@ -12528,7 +12528,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>47</v>
+        <v>278</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>-2</v>
@@ -12554,15 +12554,15 @@
       </c>
       <c r="O115" s="0" t="str">
         <f aca="false">A115</f>
-        <v>Ox</v>
+        <v>Oxa</v>
       </c>
       <c r="R115" s="0" t="str">
         <f aca="false">O115</f>
-        <v>Ox</v>
+        <v>Oxa</v>
       </c>
       <c r="X115" s="0" t="str">
         <f aca="false">A115</f>
-        <v>Ox</v>
+        <v>Oxa</v>
       </c>
       <c r="Y115" s="0" t="str">
         <f aca="false">N115</f>
@@ -13221,15 +13221,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C104" activeCellId="0" sqref="C104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C121" activeCellId="0" sqref="C121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.67"/>
@@ -18195,7 +18195,7 @@
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="str">
         <f aca="false">'icomp.aux'!X110</f>
-        <v>Edt</v>
+        <v>Edta</v>
       </c>
       <c r="B109" s="0" t="str">
         <f aca="false">'icomp.aux'!Y110</f>
@@ -18425,7 +18425,7 @@
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="str">
         <f aca="false">'icomp.aux'!X115</f>
-        <v>Ox</v>
+        <v>Oxa</v>
       </c>
       <c r="B114" s="0" t="str">
         <f aca="false">'icomp.aux'!Y115</f>
@@ -18696,6 +18696,32 @@
       <c r="K119" s="0" t="str">
         <f aca="false">'icomp.aux'!AH120</f>
         <v/>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="str">
+        <f aca="false">'icomp.aux'!X123</f>
+        <v>N_atm</v>
+      </c>
+      <c r="B120" s="0" t="str">
+        <f aca="false">'icomp.aux'!Y123</f>
+        <v>Inert_Nitrogen</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <f aca="false">C56</f>
+        <v>14.007</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <f aca="false">'icomp.aux'!AA123</f>
+        <v>7</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <f aca="false">'icomp.aux'!AB123</f>
+        <v>0</v>
+      </c>
+      <c r="F120" s="0" t="str">
+        <f aca="false">'icomp.aux'!AC123</f>
+        <v>auxiliary</v>
       </c>
     </row>
   </sheetData>
@@ -18720,7 +18746,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.66"/>
